--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioSeven201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioSeven201718.xlsx
@@ -1,74 +1,74 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400" firstSheet="47" activeTab="49"/>
+    <workbookView activeTab="49" firstSheet="47" windowHeight="5400" windowWidth="15165" xWindow="390" yWindow="30"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="ResetEmployeeData" sheetId="14" r:id="rId2"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM1" sheetId="6" r:id="rId3"/>
-    <sheet name="ProcessPayrollForApril" sheetId="7" r:id="rId4"/>
-    <sheet name="ProcessFinalPayrollForApril" sheetId="49" r:id="rId5"/>
-    <sheet name="TestAprilReports" sheetId="11" r:id="rId6"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM2" sheetId="67" r:id="rId7"/>
-    <sheet name="ProcessPayrollForMay" sheetId="68" r:id="rId8"/>
-    <sheet name="ProcessFinalPayrollForMay" sheetId="69" r:id="rId9"/>
-    <sheet name="TestMayReports" sheetId="70" r:id="rId10"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM3" sheetId="71" r:id="rId11"/>
-    <sheet name="ProcessPayrollForJune" sheetId="74" r:id="rId12"/>
-    <sheet name="ProcessFinalPayrollForJune" sheetId="75" r:id="rId13"/>
-    <sheet name="TestJuneReports" sheetId="76" r:id="rId14"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM4" sheetId="77" r:id="rId15"/>
-    <sheet name="ProcessPayrollForJuly" sheetId="78" r:id="rId16"/>
-    <sheet name="ProcessFinalPayrollForJuly" sheetId="79" r:id="rId17"/>
-    <sheet name="TestJulyReports" sheetId="80" r:id="rId18"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM5" sheetId="81" r:id="rId19"/>
-    <sheet name="ProcessPayrollForAug" sheetId="82" r:id="rId20"/>
-    <sheet name="ProcessFinalPayrollForAug" sheetId="83" r:id="rId21"/>
-    <sheet name="TestAugReports" sheetId="84" r:id="rId22"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM6" sheetId="85" r:id="rId23"/>
-    <sheet name="ProcessPayrollForSep" sheetId="86" r:id="rId24"/>
-    <sheet name="ProcessFinalPayrollForSep" sheetId="87" r:id="rId25"/>
-    <sheet name="TestSepReports" sheetId="88" r:id="rId26"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM7" sheetId="89" r:id="rId27"/>
-    <sheet name="ProcessPayrollForOct" sheetId="90" r:id="rId28"/>
-    <sheet name="ProcessFinalPayrollForOct" sheetId="91" r:id="rId29"/>
-    <sheet name="TestOctReports" sheetId="92" r:id="rId30"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM8" sheetId="93" r:id="rId31"/>
-    <sheet name="ProcessPayrollForNov" sheetId="94" r:id="rId32"/>
-    <sheet name="ProcessFinalPayrollForNov" sheetId="95" r:id="rId33"/>
-    <sheet name="TestNovReports" sheetId="96" r:id="rId34"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM9" sheetId="97" r:id="rId35"/>
-    <sheet name="ProcessPayrollForDec" sheetId="98" r:id="rId36"/>
-    <sheet name="ProcessFinalPayrollForDec" sheetId="99" r:id="rId37"/>
-    <sheet name="TestDecReports" sheetId="100" r:id="rId38"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM10" sheetId="101" r:id="rId39"/>
-    <sheet name="ProcessPayrollForJan" sheetId="102" r:id="rId40"/>
-    <sheet name="ProcessFinalPayrollForJan" sheetId="103" r:id="rId41"/>
-    <sheet name="TestJanReports" sheetId="104" r:id="rId42"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM11" sheetId="105" r:id="rId43"/>
-    <sheet name="ProcessPayrollForFeb" sheetId="106" r:id="rId44"/>
-    <sheet name="ProcessFinalPayrollForFeb" sheetId="107" r:id="rId45"/>
-    <sheet name="TestFebReports" sheetId="108" r:id="rId46"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM12" sheetId="109" r:id="rId47"/>
-    <sheet name="ProcessPayrollForMarch" sheetId="110" r:id="rId48"/>
-    <sheet name="ProcessFinalPayrollForMarch" sheetId="111" r:id="rId49"/>
-    <sheet name="TestMarchReports" sheetId="112" r:id="rId50"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="ResetEmployeeData" r:id="rId2" sheetId="14"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM1" r:id="rId3" sheetId="6"/>
+    <sheet name="ProcessPayrollForApril" r:id="rId4" sheetId="7"/>
+    <sheet name="ProcessFinalPayrollForApril" r:id="rId5" sheetId="49"/>
+    <sheet name="TestAprilReports" r:id="rId6" sheetId="11"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM2" r:id="rId7" sheetId="67"/>
+    <sheet name="ProcessPayrollForMay" r:id="rId8" sheetId="68"/>
+    <sheet name="ProcessFinalPayrollForMay" r:id="rId9" sheetId="69"/>
+    <sheet name="TestMayReports" r:id="rId10" sheetId="70"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM3" r:id="rId11" sheetId="71"/>
+    <sheet name="ProcessPayrollForJune" r:id="rId12" sheetId="74"/>
+    <sheet name="ProcessFinalPayrollForJune" r:id="rId13" sheetId="75"/>
+    <sheet name="TestJuneReports" r:id="rId14" sheetId="76"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM4" r:id="rId15" sheetId="77"/>
+    <sheet name="ProcessPayrollForJuly" r:id="rId16" sheetId="78"/>
+    <sheet name="ProcessFinalPayrollForJuly" r:id="rId17" sheetId="79"/>
+    <sheet name="TestJulyReports" r:id="rId18" sheetId="80"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM5" r:id="rId19" sheetId="81"/>
+    <sheet name="ProcessPayrollForAug" r:id="rId20" sheetId="82"/>
+    <sheet name="ProcessFinalPayrollForAug" r:id="rId21" sheetId="83"/>
+    <sheet name="TestAugReports" r:id="rId22" sheetId="84"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM6" r:id="rId23" sheetId="85"/>
+    <sheet name="ProcessPayrollForSep" r:id="rId24" sheetId="86"/>
+    <sheet name="ProcessFinalPayrollForSep" r:id="rId25" sheetId="87"/>
+    <sheet name="TestSepReports" r:id="rId26" sheetId="88"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM7" r:id="rId27" sheetId="89"/>
+    <sheet name="ProcessPayrollForOct" r:id="rId28" sheetId="90"/>
+    <sheet name="ProcessFinalPayrollForOct" r:id="rId29" sheetId="91"/>
+    <sheet name="TestOctReports" r:id="rId30" sheetId="92"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM8" r:id="rId31" sheetId="93"/>
+    <sheet name="ProcessPayrollForNov" r:id="rId32" sheetId="94"/>
+    <sheet name="ProcessFinalPayrollForNov" r:id="rId33" sheetId="95"/>
+    <sheet name="TestNovReports" r:id="rId34" sheetId="96"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM9" r:id="rId35" sheetId="97"/>
+    <sheet name="ProcessPayrollForDec" r:id="rId36" sheetId="98"/>
+    <sheet name="ProcessFinalPayrollForDec" r:id="rId37" sheetId="99"/>
+    <sheet name="TestDecReports" r:id="rId38" sheetId="100"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM10" r:id="rId39" sheetId="101"/>
+    <sheet name="ProcessPayrollForJan" r:id="rId40" sheetId="102"/>
+    <sheet name="ProcessFinalPayrollForJan" r:id="rId41" sheetId="103"/>
+    <sheet name="TestJanReports" r:id="rId42" sheetId="104"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM11" r:id="rId43" sheetId="105"/>
+    <sheet name="ProcessPayrollForFeb" r:id="rId44" sheetId="106"/>
+    <sheet name="ProcessFinalPayrollForFeb" r:id="rId45" sheetId="107"/>
+    <sheet name="TestFebReports" r:id="rId46" sheetId="108"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM12" r:id="rId47" sheetId="109"/>
+    <sheet name="ProcessPayrollForMarch" r:id="rId48" sheetId="110"/>
+    <sheet name="ProcessFinalPayrollForMarch" r:id="rId49" sheetId="111"/>
+    <sheet name="TestMarchReports" r:id="rId50" sheetId="112"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="145">
   <si>
     <t>TC</t>
   </si>
@@ -510,6 +510,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -590,94 +591,94 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="29">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -694,10 +695,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -732,7 +733,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -784,7 +785,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -889,7 +890,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -898,13 +899,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -914,7 +915,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -923,7 +924,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -932,7 +933,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -942,12 +943,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -978,7 +979,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -997,7 +998,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1009,7 +1010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView topLeftCell="A30" workbookViewId="0">
@@ -1018,10 +1019,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1725,12 +1726,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1739,24 +1740,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="13" max="14" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="45.75" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>14</v>
       </c>
@@ -1809,7 +1810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="125.25" r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>32</v>
       </c>
@@ -1854,14 +1855,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1870,15 +1871,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1910,7 +1911,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="94.5" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>51</v>
       </c>
@@ -1936,12 +1937,12 @@
       <c r="I2" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -1950,20 +1951,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2010,7 +2011,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="84" r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>32</v>
       </c>
@@ -2052,14 +2053,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2068,20 +2069,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2128,7 +2129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="78.75" r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>32</v>
       </c>
@@ -2170,14 +2171,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2186,24 +2187,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row ht="75" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>14</v>
       </c>
@@ -2256,7 +2257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="115.5" r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>32</v>
       </c>
@@ -2301,14 +2302,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2346,7 +2347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row ht="135" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>51</v>
       </c>
@@ -2372,12 +2373,12 @@
       <c r="I2" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2386,20 +2387,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2446,7 +2447,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="75.75" r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>32</v>
       </c>
@@ -2488,14 +2489,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2504,20 +2505,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2564,7 +2565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="88.5" r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>32</v>
       </c>
@@ -2606,40 +2607,40 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultRowHeight="72" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="72" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>14</v>
       </c>
@@ -2692,7 +2693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="72" r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>32</v>
       </c>
@@ -2743,14 +2744,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2788,7 +2789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row ht="135" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>51</v>
       </c>
@@ -2814,12 +2815,12 @@
       <c r="I2" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2828,10 +2829,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2857,7 +2858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>51</v>
       </c>
@@ -2875,38 +2876,38 @@
       <c r="G2" s="9"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="57.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultRowHeight="57.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="28.5" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
@@ -2950,7 +2951,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="93.75" r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>32</v>
       </c>
@@ -2992,14 +2993,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3008,26 +3009,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
@@ -3080,7 +3081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="114.75" r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>32</v>
       </c>
@@ -3127,14 +3128,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3143,24 +3144,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row ht="75" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>14</v>
       </c>
@@ -3213,7 +3214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="141" r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>32</v>
       </c>
@@ -3258,14 +3259,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3274,15 +3275,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3314,7 +3315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row ht="135" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>51</v>
       </c>
@@ -3340,12 +3341,12 @@
       <c r="I2" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -3354,20 +3355,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3414,7 +3415,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="105" r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>32</v>
       </c>
@@ -3456,14 +3457,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3472,26 +3473,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
@@ -3544,7 +3545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="92.25" r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>32</v>
       </c>
@@ -3591,14 +3592,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -3607,24 +3608,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row ht="75" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>14</v>
       </c>
@@ -3677,7 +3678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="138.75" r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>32</v>
       </c>
@@ -3722,14 +3723,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3738,15 +3739,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3778,7 +3779,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row ht="135" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>51</v>
       </c>
@@ -3804,12 +3805,12 @@
       <c r="I2" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3818,20 +3819,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3878,7 +3879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="133.5" r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>32</v>
       </c>
@@ -3920,42 +3921,42 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="102.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultRowHeight="102.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="61.5" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
@@ -4008,7 +4009,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="102.75" r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>32</v>
       </c>
@@ -4055,14 +4056,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4071,10 +4072,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4106,7 +4107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>51</v>
       </c>
@@ -4130,13 +4131,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4145,24 +4146,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row ht="75" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>14</v>
       </c>
@@ -4215,7 +4216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="150" r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>32</v>
       </c>
@@ -4260,14 +4261,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4276,15 +4277,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4316,7 +4317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row ht="135" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>51</v>
       </c>
@@ -4342,12 +4343,12 @@
       <c r="I2" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -4356,20 +4357,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4416,7 +4417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="158.25" r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>32</v>
       </c>
@@ -4458,14 +4459,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4474,26 +4475,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
@@ -4546,7 +4547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="127.5" r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>32</v>
       </c>
@@ -4593,14 +4594,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4609,24 +4610,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row ht="75" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>14</v>
       </c>
@@ -4679,7 +4680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="167.25" r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>32</v>
       </c>
@@ -4724,14 +4725,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4740,15 +4741,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4780,7 +4781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row ht="135" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>51</v>
       </c>
@@ -4806,12 +4807,12 @@
       <c r="I2" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -4820,20 +4821,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4880,7 +4881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="103.5" r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>32</v>
       </c>
@@ -4922,14 +4923,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4938,16 +4939,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="20.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
@@ -5000,7 +5001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="89.25" r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>32</v>
       </c>
@@ -5047,14 +5048,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -5063,24 +5064,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row ht="75" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>14</v>
       </c>
@@ -5133,7 +5134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="141" r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>32</v>
       </c>
@@ -5178,14 +5179,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5194,15 +5195,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5234,7 +5235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row ht="135" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>51</v>
       </c>
@@ -5260,12 +5261,12 @@
       <c r="I2" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -5274,18 +5275,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5332,7 +5333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="6" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
@@ -5372,15 +5373,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5389,19 +5390,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -5445,7 +5446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="93.75" r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>51</v>
       </c>
@@ -5483,12 +5484,12 @@
       <c r="M2" s="23"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5497,26 +5498,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
@@ -5569,7 +5570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="127.5" r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>32</v>
       </c>
@@ -5616,14 +5617,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5632,24 +5633,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row ht="75" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>14</v>
       </c>
@@ -5702,7 +5703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="150" r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>32</v>
       </c>
@@ -5747,14 +5748,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5763,15 +5764,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5803,7 +5804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row ht="135" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>51</v>
       </c>
@@ -5829,12 +5830,12 @@
       <c r="I2" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5843,19 +5844,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -5899,7 +5900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="132" r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>51</v>
       </c>
@@ -5937,12 +5938,12 @@
       <c r="M2" s="23"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5951,26 +5952,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
@@ -6023,7 +6024,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="132" r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>32</v>
       </c>
@@ -6070,14 +6071,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6086,23 +6087,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row ht="75" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>14</v>
       </c>
@@ -6155,7 +6156,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="140.25" r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>32</v>
       </c>
@@ -6200,14 +6201,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6216,15 +6217,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -6256,7 +6257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row ht="135" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>51</v>
       </c>
@@ -6282,36 +6283,36 @@
       <c r="I2" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="108.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="9.28515625" defaultRowHeight="108.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="34.5" r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
@@ -6352,7 +6353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="143.25" r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>51</v>
       </c>
@@ -6390,12 +6391,12 @@
       <c r="M2" s="23"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6404,26 +6405,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
@@ -6476,7 +6477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="132" r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>32</v>
       </c>
@@ -6523,14 +6524,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -6539,18 +6540,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="41.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="41.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6597,7 +6598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="6" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
@@ -6637,14 +6638,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -6653,24 +6654,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row ht="75" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>14</v>
       </c>
@@ -6723,7 +6724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="144.75" r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>32</v>
       </c>
@@ -6768,39 +6769,39 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="43.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="35" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="33.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="1" s="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>14</v>
       </c>
@@ -6853,7 +6854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="10" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="62.45" r="2" s="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>32</v>
       </c>
@@ -6902,15 +6903,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6919,15 +6920,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -6959,7 +6960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="84" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>51</v>
       </c>
@@ -6983,12 +6984,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6997,20 +6998,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -7057,7 +7058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="86.25" r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
@@ -7099,14 +7100,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7115,20 +7116,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -7175,7 +7176,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="86.25" r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
@@ -7217,8 +7218,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioSeven201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioSeven201718.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="49" firstSheet="47" windowHeight="5400" windowWidth="15165" xWindow="390" yWindow="30"/>
+    <workbookView activeTab="9" firstSheet="7" windowHeight="5400" windowWidth="15165" xWindow="390" yWindow="30"/>
   </bookViews>
   <sheets>
     <sheet name="first" r:id="rId1" sheetId="1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="146">
   <si>
     <t>TC</t>
   </si>
@@ -200,9 +200,6 @@
   </si>
   <si>
     <t>Taxable</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION HMRC RECOGNITION EMPLOYEE 102</t>
   </si>
   <si>
     <t>Payroll Recognition ScenarioTwo201718.xlsx</t>
@@ -504,6 +501,12 @@
   </si>
   <si>
     <t>TestMarchReports</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH PAYROL RTI SCENRIO7 REPORT</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -595,7 +598,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -624,9 +627,6 @@
     </xf>
     <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1013,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>30</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>30</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>30</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>30</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>30</v>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>30</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>30</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>30</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>30</v>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>30</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>30</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>30</v>
@@ -1293,7 +1293,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>30</v>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>30</v>
@@ -1321,7 +1321,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>30</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>30</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>30</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>30</v>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>30</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>30</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>30</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>30</v>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>30</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>30</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>30</v>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>30</v>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>30</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>30</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>30</v>
@@ -1531,7 +1531,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>30</v>
@@ -1545,7 +1545,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>30</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>30</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>30</v>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>30</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>30</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>30</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>30</v>
@@ -1643,7 +1643,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>30</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>30</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>30</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>30</v>
@@ -1699,7 +1699,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>30</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>30</v>
@@ -1734,8 +1734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1744,7 +1744,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.0" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="19.5703125" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="19.85546875" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="24.7109375" collapsed="true"/>
@@ -1758,100 +1758,106 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="45.75" r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="24" t="s">
+      <c r="P1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="125.25" r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="25" t="s">
+      <c r="B2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="E2" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
+      <c r="L2" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1883,58 +1889,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="14" t="s">
+      <c r="H1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="94.5" r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="18">
+      <c r="E2" s="17">
         <v>31958.880000000001</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="G2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1968,88 +1974,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="14" t="s">
+      <c r="M1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="84" r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="20" t="s">
+      <c r="I2" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
+      <c r="L2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2086,88 +2092,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="14" t="s">
+      <c r="M1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="78.75" r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="B2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
+      <c r="L2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2205,100 +2211,100 @@
   </cols>
   <sheetData>
     <row ht="75" r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="24" t="s">
+      <c r="P1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="115.5" r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="25" t="s">
+      <c r="B2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2319,58 +2325,58 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="14" t="s">
+      <c r="H1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row ht="135" r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="18">
+      <c r="E2" s="17">
         <v>31959</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="G2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2404,88 +2410,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="14" t="s">
+      <c r="M1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="75.75" r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="20" t="s">
+      <c r="J2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
+      <c r="L2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2522,88 +2528,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="14" t="s">
+      <c r="M1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="88.5" r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="B2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
+      <c r="L2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2641,106 +2647,106 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="72" r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="24" t="s">
+      <c r="P1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="72" r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="25" t="s">
+      <c r="B2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" s="25" t="s">
+      <c r="E2" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
+      <c r="O2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2761,58 +2767,58 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="14" t="s">
+      <c r="H1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row ht="135" r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="18">
+      <c r="E2" s="17">
         <v>31959.119999999999</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="G2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2860,7 +2866,7 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8" t="s">
@@ -2908,88 +2914,88 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="28.5" r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="14" t="s">
+      <c r="M1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="93.75" r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="20" t="s">
+      <c r="I2" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
+      <c r="L2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3029,102 +3035,102 @@
   </cols>
   <sheetData>
     <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="14" t="s">
+      <c r="M1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="24" t="s">
+      <c r="P1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="114.75" r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="B2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
+      <c r="L2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3162,100 +3168,100 @@
   </cols>
   <sheetData>
     <row ht="75" r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="24" t="s">
+      <c r="P1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="141" r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="25" t="s">
+      <c r="B2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3287,58 +3293,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="14" t="s">
+      <c r="H1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row ht="135" r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="18">
+      <c r="E2" s="17">
         <v>31971.119999999999</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="G2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -3372,88 +3378,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="14" t="s">
+      <c r="M1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="105" r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="20" t="s">
+      <c r="I2" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
+      <c r="L2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3493,102 +3499,102 @@
   </cols>
   <sheetData>
     <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="14" t="s">
+      <c r="M1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="24" t="s">
+      <c r="P1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="92.25" r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="B2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
+      <c r="L2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3626,100 +3632,100 @@
   </cols>
   <sheetData>
     <row ht="75" r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="24" t="s">
+      <c r="P1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="138.75" r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="25" t="s">
+      <c r="B2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3751,58 +3757,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="14" t="s">
+      <c r="H1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row ht="135" r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="18">
+      <c r="E2" s="17">
         <v>150458.88</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="G2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -3836,88 +3842,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="14" t="s">
+      <c r="M1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="133.5" r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="20" t="s">
+      <c r="I2" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
+      <c r="L2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3957,102 +3963,102 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="61.5" r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="14" t="s">
+      <c r="M1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="24" t="s">
+      <c r="P1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="102.75" r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="B2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
+      <c r="L2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4109,16 +4115,16 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>53</v>
       </c>
       <c r="E2" s="2">
         <v>470.88</v>
@@ -4164,100 +4170,100 @@
   </cols>
   <sheetData>
     <row ht="75" r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="24" t="s">
+      <c r="P1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="150" r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="25" t="s">
+      <c r="B2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4289,58 +4295,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="14" t="s">
+      <c r="H1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row ht="135" r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="18">
+      <c r="E2" s="17">
         <v>150459</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="G2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -4374,88 +4380,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="14" t="s">
+      <c r="M1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="158.25" r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="20" t="s">
+      <c r="I2" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
+      <c r="L2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4495,102 +4501,102 @@
   </cols>
   <sheetData>
     <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="14" t="s">
+      <c r="M1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="24" t="s">
+      <c r="P1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="127.5" r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="B2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
+      <c r="L2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4628,100 +4634,100 @@
   </cols>
   <sheetData>
     <row ht="75" r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="24" t="s">
+      <c r="P1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="167.25" r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="25" t="s">
+      <c r="B2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4753,58 +4759,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="14" t="s">
+      <c r="H1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row ht="135" r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="18">
+      <c r="E2" s="17">
         <v>150459.12</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="G2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -4838,88 +4844,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="14" t="s">
+      <c r="M1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="103.5" r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="20" t="s">
+      <c r="I2" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
+      <c r="L2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4949,102 +4955,102 @@
   </cols>
   <sheetData>
     <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="14" t="s">
+      <c r="M1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="24" t="s">
+      <c r="P1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="89.25" r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="B2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
+      <c r="L2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5082,100 +5088,100 @@
   </cols>
   <sheetData>
     <row ht="75" r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="24" t="s">
+      <c r="P1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="141" r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="25" t="s">
+      <c r="B2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5207,58 +5213,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="14" t="s">
+      <c r="H1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row ht="135" r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="18">
+      <c r="E2" s="17">
         <v>150471</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="G2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -5338,10 +5344,10 @@
         <v>32</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>8</v>
@@ -5350,13 +5356,13 @@
         <v>26</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>55</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>27</v>
@@ -5365,7 +5371,7 @@
         <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>4</v>
@@ -5406,82 +5412,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="14" t="s">
+      <c r="L1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="93.75" r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
+      <c r="K2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -5518,102 +5524,102 @@
   </cols>
   <sheetData>
     <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="14" t="s">
+      <c r="M1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="24" t="s">
+      <c r="P1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="127.5" r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="B2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
+      <c r="L2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5651,100 +5657,100 @@
   </cols>
   <sheetData>
     <row ht="75" r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="24" t="s">
+      <c r="P1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="150" r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="25" t="s">
+      <c r="B2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5776,58 +5782,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="14" t="s">
+      <c r="H1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row ht="135" r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="18">
+      <c r="E2" s="17">
         <v>33963</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="G2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -5860,82 +5866,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="14" t="s">
+      <c r="L1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="132" r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
+      <c r="K2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -5972,102 +5978,102 @@
   </cols>
   <sheetData>
     <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="14" t="s">
+      <c r="M1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="24" t="s">
+      <c r="P1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="132" r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="B2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
+      <c r="L2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6104,100 +6110,100 @@
   </cols>
   <sheetData>
     <row ht="75" r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="24" t="s">
+      <c r="P1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="140.25" r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="25" t="s">
+      <c r="B2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6229,58 +6235,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="14" t="s">
+      <c r="H1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row ht="135" r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="18">
+      <c r="E2" s="17">
         <v>33963.120000000003</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="G2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -6313,82 +6319,82 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="34.5" r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="14" t="s">
+      <c r="L1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="143.25" r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
+      <c r="K2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -6425,102 +6431,102 @@
   </cols>
   <sheetData>
     <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="14" t="s">
+      <c r="M1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="24" t="s">
+      <c r="P1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="132" r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="B2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
+      <c r="L2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6534,8 +6540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6603,10 +6609,10 @@
         <v>32</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>8</v>
@@ -6615,13 +6621,13 @@
         <v>26</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>55</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>28</v>
@@ -6630,7 +6636,7 @@
         <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>4</v>
@@ -6648,8 +6654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:N2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6659,7 +6665,7 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.42578125" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="17.0" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="21.140625" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
@@ -6672,100 +6678,98 @@
   </cols>
   <sheetData>
     <row ht="75" r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="24" t="s">
+      <c r="P1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="144.75" r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="25" t="s">
+      <c r="B2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="J2" s="25" t="s">
+      <c r="E2" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6779,8 +6783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6802,104 +6806,106 @@
   </cols>
   <sheetData>
     <row customFormat="1" ht="30" r="1" s="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="11" t="s">
+      <c r="P1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="62.45" r="2" s="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="10" t="s">
-        <v>4</v>
-      </c>
+      <c r="O2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6962,16 +6968,16 @@
     </row>
     <row customHeight="1" ht="84" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>53</v>
       </c>
       <c r="E2" s="2">
         <v>471</v>
@@ -6993,7 +6999,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7063,34 +7069,34 @@
         <v>32</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>4</v>
@@ -7111,7 +7117,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7181,34 +7187,34 @@
         <v>32</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>144</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>4</v>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioSeven201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioSeven201718.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="9" firstSheet="7" windowHeight="5400" windowWidth="15165" xWindow="390" yWindow="30"/>
+    <workbookView activeTab="49" firstSheet="47" windowHeight="5400" windowWidth="15165" xWindow="390" yWindow="30"/>
   </bookViews>
   <sheets>
     <sheet name="first" r:id="rId1" sheetId="1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="164">
   <si>
     <t>TC</t>
   </si>
@@ -206,9 +206,6 @@
   </si>
   <si>
     <t>A All other employees</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH PAYROL RTI SCENRIO2 REPORT</t>
   </si>
   <si>
     <t>Monthly_RTIPayroll</t>
@@ -507,6 +504,63 @@
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
   </si>
 </sst>
 </file>
@@ -1111,7 +1165,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>30</v>
@@ -1125,7 +1179,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>30</v>
@@ -1139,7 +1193,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>30</v>
@@ -1153,7 +1207,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>30</v>
@@ -1167,7 +1221,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>30</v>
@@ -1181,7 +1235,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>30</v>
@@ -1195,7 +1249,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>30</v>
@@ -1209,7 +1263,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>30</v>
@@ -1223,7 +1277,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>30</v>
@@ -1237,7 +1291,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>30</v>
@@ -1251,7 +1305,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>30</v>
@@ -1265,7 +1319,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>30</v>
@@ -1279,7 +1333,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>30</v>
@@ -1293,7 +1347,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>30</v>
@@ -1307,7 +1361,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>30</v>
@@ -1321,7 +1375,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>30</v>
@@ -1335,7 +1389,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>30</v>
@@ -1349,7 +1403,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>30</v>
@@ -1363,7 +1417,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>30</v>
@@ -1377,7 +1431,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>30</v>
@@ -1391,7 +1445,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>30</v>
@@ -1405,7 +1459,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>30</v>
@@ -1419,7 +1473,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>30</v>
@@ -1433,7 +1487,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>30</v>
@@ -1447,7 +1501,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>30</v>
@@ -1461,7 +1515,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>30</v>
@@ -1475,7 +1529,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>30</v>
@@ -1489,7 +1543,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>30</v>
@@ -1503,7 +1557,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>30</v>
@@ -1517,7 +1571,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>30</v>
@@ -1531,7 +1585,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>30</v>
@@ -1545,7 +1599,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>30</v>
@@ -1559,7 +1613,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>30</v>
@@ -1573,7 +1627,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>30</v>
@@ -1587,7 +1641,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>30</v>
@@ -1601,7 +1655,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>30</v>
@@ -1615,7 +1669,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>30</v>
@@ -1629,7 +1683,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>30</v>
@@ -1643,7 +1697,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>30</v>
@@ -1657,7 +1711,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>30</v>
@@ -1671,7 +1725,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>30</v>
@@ -1685,7 +1739,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>30</v>
@@ -1699,7 +1753,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>30</v>
@@ -1713,7 +1767,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>30</v>
@@ -1734,8 +1788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1815,43 +1869,43 @@
         <v>32</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J2" s="24" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M2" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O2" s="26" t="s">
         <v>4</v>
@@ -1919,16 +1973,16 @@
     </row>
     <row customHeight="1" ht="94.5" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>51</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>52</v>
       </c>
       <c r="E2" s="17">
         <v>31958.880000000001</v>
@@ -2022,34 +2076,34 @@
         <v>32</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>54</v>
-      </c>
       <c r="H2" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L2" s="21" t="s">
         <v>4</v>
@@ -2140,34 +2194,34 @@
         <v>32</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>54</v>
-      </c>
       <c r="H2" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L2" s="21" t="s">
         <v>4</v>
@@ -2187,8 +2241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2268,38 +2322,44 @@
         <v>32</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>54</v>
-      </c>
       <c r="H2" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J2" s="24" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
+        <v>54</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>145</v>
+      </c>
       <c r="O2" s="26" t="s">
         <v>4</v>
       </c>
@@ -2355,16 +2415,16 @@
     </row>
     <row ht="135" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>51</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>52</v>
       </c>
       <c r="E2" s="17">
         <v>31959</v>
@@ -2458,34 +2518,34 @@
         <v>32</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>66</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>67</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L2" s="21" t="s">
         <v>4</v>
@@ -2576,34 +2636,34 @@
         <v>32</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>54</v>
-      </c>
       <c r="H2" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L2" s="21" t="s">
         <v>4</v>
@@ -2623,8 +2683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultRowHeight="72" x14ac:dyDescent="0.25"/>
@@ -2704,43 +2764,43 @@
         <v>32</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>44</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J2" s="24" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="M2" s="24" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="O2" s="26" t="s">
         <v>4</v>
@@ -2797,16 +2857,16 @@
     </row>
     <row ht="135" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>51</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>52</v>
       </c>
       <c r="E2" s="17">
         <v>31959.119999999999</v>
@@ -2866,7 +2926,7 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8" t="s">
@@ -2962,34 +3022,34 @@
         <v>32</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>54</v>
-      </c>
       <c r="H2" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L2" s="21" t="s">
         <v>4</v>
@@ -3092,34 +3152,34 @@
         <v>32</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>54</v>
-      </c>
       <c r="H2" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L2" s="21" t="s">
         <v>4</v>
@@ -3145,7 +3205,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:N2"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3156,7 +3216,7 @@
     <col min="4" max="4" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.28515625" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="17.85546875" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
@@ -3225,38 +3285,44 @@
         <v>32</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>54</v>
-      </c>
       <c r="H2" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J2" s="24" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
+        <v>54</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>85</v>
+      </c>
       <c r="O2" s="26" t="s">
         <v>4</v>
       </c>
@@ -3323,16 +3389,16 @@
     </row>
     <row ht="135" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>51</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>52</v>
       </c>
       <c r="E2" s="17">
         <v>31971.119999999999</v>
@@ -3426,34 +3492,34 @@
         <v>32</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>54</v>
-      </c>
       <c r="H2" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L2" s="21" t="s">
         <v>4</v>
@@ -3556,34 +3622,34 @@
         <v>32</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>54</v>
-      </c>
       <c r="H2" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L2" s="21" t="s">
         <v>4</v>
@@ -3609,7 +3675,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:N2"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3689,38 +3755,44 @@
         <v>32</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>54</v>
-      </c>
       <c r="H2" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J2" s="24" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
+        <v>54</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>92</v>
+      </c>
       <c r="O2" s="26" t="s">
         <v>4</v>
       </c>
@@ -3787,16 +3859,16 @@
     </row>
     <row ht="135" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>51</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>52</v>
       </c>
       <c r="E2" s="17">
         <v>150458.88</v>
@@ -3890,34 +3962,34 @@
         <v>32</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>54</v>
-      </c>
       <c r="H2" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L2" s="21" t="s">
         <v>4</v>
@@ -4020,34 +4092,34 @@
         <v>32</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>54</v>
-      </c>
       <c r="H2" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L2" s="21" t="s">
         <v>4</v>
@@ -4115,16 +4187,16 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>52</v>
       </c>
       <c r="E2" s="2">
         <v>470.88</v>
@@ -4147,7 +4219,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:N2"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4227,38 +4299,44 @@
         <v>32</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>54</v>
-      </c>
       <c r="H2" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>83</v>
+        <v>48</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>82</v>
       </c>
       <c r="J2" s="24" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
+        <v>54</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>148</v>
+      </c>
       <c r="O2" s="26" t="s">
         <v>4</v>
       </c>
@@ -4325,16 +4403,16 @@
     </row>
     <row ht="135" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>51</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>52</v>
       </c>
       <c r="E2" s="17">
         <v>150459</v>
@@ -4428,34 +4506,34 @@
         <v>32</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>54</v>
-      </c>
       <c r="H2" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L2" s="21" t="s">
         <v>4</v>
@@ -4558,34 +4636,34 @@
         <v>32</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>54</v>
-      </c>
       <c r="H2" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L2" s="21" t="s">
         <v>4</v>
@@ -4611,7 +4689,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:N2"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4691,38 +4769,44 @@
         <v>32</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>54</v>
-      </c>
       <c r="H2" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>87</v>
+        <v>48</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>86</v>
       </c>
       <c r="J2" s="24" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
+        <v>54</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>151</v>
+      </c>
       <c r="O2" s="26" t="s">
         <v>4</v>
       </c>
@@ -4789,16 +4873,16 @@
     </row>
     <row ht="135" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>51</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>52</v>
       </c>
       <c r="E2" s="17">
         <v>150459.12</v>
@@ -4892,34 +4976,34 @@
         <v>32</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>54</v>
-      </c>
       <c r="H2" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L2" s="21" t="s">
         <v>4</v>
@@ -5012,34 +5096,34 @@
         <v>32</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>54</v>
-      </c>
       <c r="H2" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L2" s="21" t="s">
         <v>4</v>
@@ -5065,7 +5149,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:N2"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5145,38 +5229,44 @@
         <v>32</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>54</v>
-      </c>
       <c r="H2" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>91</v>
+        <v>48</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>90</v>
       </c>
       <c r="J2" s="24" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
+        <v>54</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>154</v>
+      </c>
       <c r="O2" s="26" t="s">
         <v>4</v>
       </c>
@@ -5243,16 +5333,16 @@
     </row>
     <row ht="135" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>51</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>52</v>
       </c>
       <c r="E2" s="17">
         <v>150471</v>
@@ -5344,10 +5434,10 @@
         <v>32</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>8</v>
@@ -5356,13 +5446,13 @@
         <v>26</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>27</v>
@@ -5371,7 +5461,7 @@
         <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>4</v>
@@ -5454,34 +5544,34 @@
     </row>
     <row customHeight="1" ht="93.75" r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>54</v>
-      </c>
       <c r="G2" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K2" s="21" t="s">
         <v>4</v>
@@ -5581,34 +5671,34 @@
         <v>32</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>54</v>
-      </c>
       <c r="H2" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L2" s="21" t="s">
         <v>4</v>
@@ -5634,7 +5724,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5714,38 +5804,44 @@
         <v>32</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>54</v>
-      </c>
       <c r="H2" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J2" s="24" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
+        <v>54</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>157</v>
+      </c>
       <c r="O2" s="26" t="s">
         <v>4</v>
       </c>
@@ -5812,16 +5908,16 @@
     </row>
     <row ht="135" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>51</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>52</v>
       </c>
       <c r="E2" s="17">
         <v>33963</v>
@@ -5908,34 +6004,34 @@
     </row>
     <row customHeight="1" ht="132" r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>54</v>
-      </c>
       <c r="G2" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K2" s="21" t="s">
         <v>4</v>
@@ -6035,34 +6131,34 @@
         <v>32</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>54</v>
-      </c>
       <c r="H2" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L2" s="21" t="s">
         <v>4</v>
@@ -6088,7 +6184,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:N2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6167,38 +6263,44 @@
         <v>32</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>54</v>
-      </c>
       <c r="H2" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J2" s="24" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
+        <v>54</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>160</v>
+      </c>
       <c r="O2" s="26" t="s">
         <v>4</v>
       </c>
@@ -6265,16 +6367,16 @@
     </row>
     <row ht="135" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>51</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>52</v>
       </c>
       <c r="E2" s="17">
         <v>33963.120000000003</v>
@@ -6361,34 +6463,34 @@
     </row>
     <row customHeight="1" ht="143.25" r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>54</v>
-      </c>
       <c r="G2" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K2" s="21" t="s">
         <v>4</v>
@@ -6488,34 +6590,34 @@
         <v>32</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>54</v>
-      </c>
       <c r="H2" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L2" s="21" t="s">
         <v>4</v>
@@ -6609,10 +6711,10 @@
         <v>32</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>8</v>
@@ -6621,13 +6723,13 @@
         <v>26</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>28</v>
@@ -6636,7 +6738,7 @@
         <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>4</v>
@@ -6654,8 +6756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6735,36 +6837,44 @@
         <v>32</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>144</v>
-      </c>
       <c r="H2" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J2" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
+      <c r="K2" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>163</v>
+      </c>
       <c r="O2" s="26" t="s">
         <v>4</v>
       </c>
@@ -6863,10 +6973,10 @@
         <v>32</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>8</v>
@@ -6875,13 +6985,13 @@
         <v>26</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I2" s="24" t="s">
         <v>34</v>
@@ -6890,7 +7000,7 @@
         <v>23</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L2" s="24" t="s">
         <v>39</v>
@@ -6968,16 +7078,16 @@
     </row>
     <row customHeight="1" ht="84" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>52</v>
       </c>
       <c r="E2" s="2">
         <v>471</v>
@@ -7069,34 +7179,34 @@
         <v>32</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>4</v>
@@ -7187,34 +7297,34 @@
         <v>32</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>4</v>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioSeven201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioSeven201718.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="167">
   <si>
     <t>TC</t>
   </si>
@@ -561,6 +561,15 @@
   </si>
   <si>
     <t>81</t>
+  </si>
+  <si>
+    <t>January-2018</t>
+  </si>
+  <si>
+    <t>February-2018</t>
+  </si>
+  <si>
+    <t>March-2018-Final</t>
   </si>
 </sst>
 </file>
@@ -5724,7 +5733,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5813,7 +5822,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>87</v>
+        <v>164</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>52</v>
@@ -6184,7 +6193,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6272,7 +6281,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>91</v>
+        <v>165</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>52</v>
@@ -6757,7 +6766,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6846,7 +6855,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>95</v>
+        <v>166</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>52</v>
@@ -6886,6 +6895,7 @@
     <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioSeven201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioSeven201718.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="167">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioSeven201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioSeven201718.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="167">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioSeven201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioSeven201718.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="167">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioSeven201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioSeven201718.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="167">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioSeven201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioSeven201718.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="167">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioSeven201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioSeven201718.xlsx
@@ -4,66 +4,66 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="36" windowWidth="15168" windowHeight="5400" firstSheet="47" activeTab="49"/>
+    <workbookView activeTab="49" firstSheet="47" windowHeight="5400" windowWidth="15168" xWindow="396" yWindow="36"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="ResetEmployeeData" sheetId="14" r:id="rId2"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM1" sheetId="6" r:id="rId3"/>
-    <sheet name="ProcessPayrollForApril" sheetId="7" r:id="rId4"/>
-    <sheet name="ProcessFinalPayrollForApril" sheetId="49" r:id="rId5"/>
-    <sheet name="TestAprilReports" sheetId="11" r:id="rId6"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM2" sheetId="67" r:id="rId7"/>
-    <sheet name="ProcessPayrollForMay" sheetId="68" r:id="rId8"/>
-    <sheet name="ProcessFinalPayrollForMay" sheetId="69" r:id="rId9"/>
-    <sheet name="TestMayReports" sheetId="70" r:id="rId10"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM3" sheetId="71" r:id="rId11"/>
-    <sheet name="ProcessPayrollForJune" sheetId="74" r:id="rId12"/>
-    <sheet name="ProcessFinalPayrollForJune" sheetId="75" r:id="rId13"/>
-    <sheet name="TestJuneReports" sheetId="76" r:id="rId14"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM4" sheetId="77" r:id="rId15"/>
-    <sheet name="ProcessPayrollForJuly" sheetId="78" r:id="rId16"/>
-    <sheet name="ProcessFinalPayrollForJuly" sheetId="79" r:id="rId17"/>
-    <sheet name="TestJulyReports" sheetId="80" r:id="rId18"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM5" sheetId="81" r:id="rId19"/>
-    <sheet name="ProcessPayrollForAug" sheetId="82" r:id="rId20"/>
-    <sheet name="ProcessFinalPayrollForAug" sheetId="83" r:id="rId21"/>
-    <sheet name="TestAugReports" sheetId="84" r:id="rId22"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM6" sheetId="85" r:id="rId23"/>
-    <sheet name="ProcessPayrollForSep" sheetId="86" r:id="rId24"/>
-    <sheet name="ProcessFinalPayrollForSep" sheetId="87" r:id="rId25"/>
-    <sheet name="TestSepReports" sheetId="88" r:id="rId26"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM7" sheetId="89" r:id="rId27"/>
-    <sheet name="ProcessPayrollForOct" sheetId="90" r:id="rId28"/>
-    <sheet name="ProcessFinalPayrollForOct" sheetId="91" r:id="rId29"/>
-    <sheet name="TestOctReports" sheetId="92" r:id="rId30"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM8" sheetId="93" r:id="rId31"/>
-    <sheet name="ProcessPayrollForNov" sheetId="94" r:id="rId32"/>
-    <sheet name="ProcessFinalPayrollForNov" sheetId="95" r:id="rId33"/>
-    <sheet name="TestNovReports" sheetId="96" r:id="rId34"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM9" sheetId="97" r:id="rId35"/>
-    <sheet name="ProcessPayrollForDec" sheetId="98" r:id="rId36"/>
-    <sheet name="ProcessFinalPayrollForDec" sheetId="99" r:id="rId37"/>
-    <sheet name="TestDecReports" sheetId="100" r:id="rId38"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM10" sheetId="101" r:id="rId39"/>
-    <sheet name="ProcessPayrollForJan" sheetId="102" r:id="rId40"/>
-    <sheet name="ProcessFinalPayrollForJan" sheetId="103" r:id="rId41"/>
-    <sheet name="TestJanReports" sheetId="104" r:id="rId42"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM11" sheetId="105" r:id="rId43"/>
-    <sheet name="ProcessPayrollForFeb" sheetId="106" r:id="rId44"/>
-    <sheet name="ProcessFinalPayrollForFeb" sheetId="107" r:id="rId45"/>
-    <sheet name="TestFebReports" sheetId="108" r:id="rId46"/>
-    <sheet name="UpdteTaxCodeAndAnualSalaryM12" sheetId="109" r:id="rId47"/>
-    <sheet name="ProcessPayrollForMarch" sheetId="110" r:id="rId48"/>
-    <sheet name="ProcessFinalPayrollForMarch" sheetId="111" r:id="rId49"/>
-    <sheet name="TestMarchReports" sheetId="112" r:id="rId50"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="ResetEmployeeData" r:id="rId2" sheetId="14"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM1" r:id="rId3" sheetId="6"/>
+    <sheet name="ProcessPayrollForApril" r:id="rId4" sheetId="7"/>
+    <sheet name="ProcessFinalPayrollForApril" r:id="rId5" sheetId="49"/>
+    <sheet name="TestAprilReports" r:id="rId6" sheetId="11"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM2" r:id="rId7" sheetId="67"/>
+    <sheet name="ProcessPayrollForMay" r:id="rId8" sheetId="68"/>
+    <sheet name="ProcessFinalPayrollForMay" r:id="rId9" sheetId="69"/>
+    <sheet name="TestMayReports" r:id="rId10" sheetId="70"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM3" r:id="rId11" sheetId="71"/>
+    <sheet name="ProcessPayrollForJune" r:id="rId12" sheetId="74"/>
+    <sheet name="ProcessFinalPayrollForJune" r:id="rId13" sheetId="75"/>
+    <sheet name="TestJuneReports" r:id="rId14" sheetId="76"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM4" r:id="rId15" sheetId="77"/>
+    <sheet name="ProcessPayrollForJuly" r:id="rId16" sheetId="78"/>
+    <sheet name="ProcessFinalPayrollForJuly" r:id="rId17" sheetId="79"/>
+    <sheet name="TestJulyReports" r:id="rId18" sheetId="80"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM5" r:id="rId19" sheetId="81"/>
+    <sheet name="ProcessPayrollForAug" r:id="rId20" sheetId="82"/>
+    <sheet name="ProcessFinalPayrollForAug" r:id="rId21" sheetId="83"/>
+    <sheet name="TestAugReports" r:id="rId22" sheetId="84"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM6" r:id="rId23" sheetId="85"/>
+    <sheet name="ProcessPayrollForSep" r:id="rId24" sheetId="86"/>
+    <sheet name="ProcessFinalPayrollForSep" r:id="rId25" sheetId="87"/>
+    <sheet name="TestSepReports" r:id="rId26" sheetId="88"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM7" r:id="rId27" sheetId="89"/>
+    <sheet name="ProcessPayrollForOct" r:id="rId28" sheetId="90"/>
+    <sheet name="ProcessFinalPayrollForOct" r:id="rId29" sheetId="91"/>
+    <sheet name="TestOctReports" r:id="rId30" sheetId="92"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM8" r:id="rId31" sheetId="93"/>
+    <sheet name="ProcessPayrollForNov" r:id="rId32" sheetId="94"/>
+    <sheet name="ProcessFinalPayrollForNov" r:id="rId33" sheetId="95"/>
+    <sheet name="TestNovReports" r:id="rId34" sheetId="96"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM9" r:id="rId35" sheetId="97"/>
+    <sheet name="ProcessPayrollForDec" r:id="rId36" sheetId="98"/>
+    <sheet name="ProcessFinalPayrollForDec" r:id="rId37" sheetId="99"/>
+    <sheet name="TestDecReports" r:id="rId38" sheetId="100"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM10" r:id="rId39" sheetId="101"/>
+    <sheet name="ProcessPayrollForJan" r:id="rId40" sheetId="102"/>
+    <sheet name="ProcessFinalPayrollForJan" r:id="rId41" sheetId="103"/>
+    <sheet name="TestJanReports" r:id="rId42" sheetId="104"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM11" r:id="rId43" sheetId="105"/>
+    <sheet name="ProcessPayrollForFeb" r:id="rId44" sheetId="106"/>
+    <sheet name="ProcessFinalPayrollForFeb" r:id="rId45" sheetId="107"/>
+    <sheet name="TestFebReports" r:id="rId46" sheetId="108"/>
+    <sheet name="UpdteTaxCodeAndAnualSalaryM12" r:id="rId47" sheetId="109"/>
+    <sheet name="ProcessPayrollForMarch" r:id="rId48" sheetId="110"/>
+    <sheet name="ProcessFinalPayrollForMarch" r:id="rId49" sheetId="111"/>
+    <sheet name="TestMarchReports" r:id="rId50" sheetId="112"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="167">
   <si>
     <t>TC</t>
   </si>
@@ -571,6 +571,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -643,86 +644,86 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -739,10 +740,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -900,7 +901,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -909,13 +910,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -925,7 +926,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -934,7 +935,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -943,7 +944,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -953,12 +954,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -989,7 +990,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1008,7 +1009,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1020,7 +1021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1029,13 +1030,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1049,7 +1050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1063,7 +1064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -1077,7 +1078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1091,7 +1092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1105,7 +1106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1119,7 +1120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -1133,7 +1134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -1147,7 +1148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -1161,7 +1162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -1175,7 +1176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -1189,7 +1190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>103</v>
       </c>
@@ -1203,7 +1204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>104</v>
       </c>
@@ -1217,7 +1218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>105</v>
       </c>
@@ -1231,7 +1232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>106</v>
       </c>
@@ -1245,7 +1246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>107</v>
       </c>
@@ -1259,7 +1260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>108</v>
       </c>
@@ -1273,7 +1274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>109</v>
       </c>
@@ -1287,7 +1288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -1736,12 +1737,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1750,24 +1751,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="24.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="12.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="24.6640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="13" max="14" bestFit="true" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="45.75" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>14</v>
       </c>
@@ -1820,7 +1821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="125.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="125.25" r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -1871,14 +1872,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1887,18 +1888,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
@@ -1927,7 +1928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="94.5" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>47</v>
       </c>
@@ -1953,12 +1954,12 @@
       <c r="I2" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1967,23 +1968,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -2027,7 +2028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="84" r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -2069,14 +2070,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2085,23 +2086,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -2145,7 +2146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="78.75" r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -2187,14 +2188,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2203,24 +2204,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row ht="75" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>14</v>
       </c>
@@ -2273,7 +2274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="115.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="115.5" r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -2324,14 +2325,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2340,7 +2341,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
@@ -2369,7 +2370,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row ht="135" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>47</v>
       </c>
@@ -2395,12 +2396,12 @@
       <c r="I2" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2409,23 +2410,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -2469,7 +2470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="75.75" r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -2511,14 +2512,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2527,23 +2528,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -2587,7 +2588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="88.5" r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -2629,40 +2630,40 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="72" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr customHeight="1" defaultRowHeight="72" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="24.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="24.109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="72" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>14</v>
       </c>
@@ -2715,7 +2716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="72" r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -2766,14 +2767,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2782,7 +2783,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
@@ -2811,7 +2812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row ht="135" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>47</v>
       </c>
@@ -2837,12 +2838,12 @@
       <c r="I2" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2851,13 +2852,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="8.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2880,7 +2881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>47</v>
       </c>
@@ -2898,38 +2899,38 @@
       <c r="G2" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="57.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr customHeight="1" defaultRowHeight="57.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="28.5" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -2973,7 +2974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="93.75" r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -3015,14 +3016,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3031,26 +3032,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -3103,7 +3104,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="114.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="114.75" r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -3150,14 +3151,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3166,24 +3167,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="30.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.88671875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row ht="75" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>14</v>
       </c>
@@ -3236,7 +3237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="141" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="141" r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -3287,14 +3288,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3303,18 +3304,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
@@ -3343,7 +3344,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row ht="135" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>47</v>
       </c>
@@ -3369,12 +3370,12 @@
       <c r="I2" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3383,23 +3384,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -3443,7 +3444,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="105" r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -3485,14 +3486,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3501,26 +3502,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -3573,7 +3574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="92.25" r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -3620,14 +3621,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3636,24 +3637,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row ht="75" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>14</v>
       </c>
@@ -3706,7 +3707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="138.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="138.75" r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -3757,14 +3758,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3773,18 +3774,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
@@ -3813,7 +3814,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row ht="135" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>47</v>
       </c>
@@ -3839,12 +3840,12 @@
       <c r="I2" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3853,23 +3854,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -3913,7 +3914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="133.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="133.5" r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -3955,42 +3956,42 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="102.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr customHeight="1" defaultRowHeight="102.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="61.5" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -4043,7 +4044,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="102.75" r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -4090,14 +4091,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4106,13 +4107,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -4141,7 +4142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>47</v>
       </c>
@@ -4165,13 +4166,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -4180,24 +4181,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row ht="75" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>14</v>
       </c>
@@ -4250,7 +4251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="150" r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -4301,14 +4302,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4317,18 +4318,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
@@ -4357,7 +4358,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row ht="135" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>47</v>
       </c>
@@ -4383,12 +4384,12 @@
       <c r="I2" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4397,23 +4398,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -4457,7 +4458,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="158.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="158.25" r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -4499,14 +4500,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4515,26 +4516,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -4587,7 +4588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="127.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="127.5" r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -4634,14 +4635,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4650,24 +4651,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="22.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.5546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row ht="75" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>14</v>
       </c>
@@ -4720,7 +4721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="167.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="167.25" r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -4771,14 +4772,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4787,18 +4788,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
@@ -4827,7 +4828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row ht="135" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>47</v>
       </c>
@@ -4853,12 +4854,12 @@
       <c r="I2" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4867,23 +4868,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -4927,7 +4928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="103.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="103.5" r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -4969,14 +4970,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4985,16 +4986,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="20.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -5047,7 +5048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="89.25" r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -5094,14 +5095,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5110,24 +5111,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row ht="75" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>14</v>
       </c>
@@ -5180,7 +5181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="141" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="141" r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -5231,14 +5232,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5247,18 +5248,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
@@ -5287,7 +5288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row ht="135" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>47</v>
       </c>
@@ -5313,12 +5314,12 @@
       <c r="I2" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5327,18 +5328,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.5546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -5385,7 +5386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="6" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -5424,13 +5425,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5439,20 +5440,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
-    <col min="2" max="2" width="28.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.77734375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -5499,7 +5500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="93.75" r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -5541,14 +5542,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5557,26 +5558,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="23.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -5629,7 +5630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="127.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="127.5" r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -5676,14 +5677,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5692,24 +5693,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.21875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.88671875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row ht="75" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>14</v>
       </c>
@@ -5762,7 +5763,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="150" r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -5813,14 +5814,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5829,18 +5830,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
@@ -5869,7 +5870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row ht="135" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>47</v>
       </c>
@@ -5895,12 +5896,12 @@
       <c r="I2" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5909,22 +5910,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>14</v>
       </c>
@@ -5968,7 +5969,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="132" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="132" r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -6010,14 +6011,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6026,26 +6027,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -6098,7 +6099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="132" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="132" r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -6145,14 +6146,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6161,23 +6162,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="20.88671875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row ht="75" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>14</v>
       </c>
@@ -6230,7 +6231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="140.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="140.25" r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -6281,14 +6282,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6297,18 +6298,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
@@ -6337,7 +6338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row ht="135" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>47</v>
       </c>
@@ -6363,36 +6364,36 @@
       <c r="I2" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="108.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="9.33203125" defaultRowHeight="108.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="27.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="27.88671875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="34.5" r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>14</v>
       </c>
@@ -6436,7 +6437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="143.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="143.25" r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -6478,14 +6479,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6494,26 +6495,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>14</v>
       </c>
@@ -6566,7 +6567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="132" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="132" r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -6613,14 +6614,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6629,21 +6630,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="41.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="41.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -6687,7 +6688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="6" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -6727,14 +6728,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -6743,24 +6744,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="8.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="21.109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>14</v>
       </c>
@@ -6813,7 +6814,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="144.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="144.75" r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -6864,40 +6865,40 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="37.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="43.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="35" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="32.6640625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="33.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="33.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="1" s="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>14</v>
       </c>
@@ -6950,7 +6951,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="9" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="62.4" r="2" s="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -7001,15 +7002,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7018,18 +7019,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -7058,7 +7059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="84" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>47</v>
       </c>
@@ -7082,12 +7083,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7096,23 +7097,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="27.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -7156,7 +7157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="86.25" r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -7198,14 +7199,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7214,23 +7215,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -7274,7 +7275,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="86.25" r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -7316,8 +7317,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioSeven201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioSeven201718.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="167">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioSeven201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioSeven201718.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="167">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioSeven201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioSeven201718.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="49" firstSheet="47" windowHeight="5400" windowWidth="15168" xWindow="396" yWindow="36"/>
+    <workbookView activeTab="9" firstSheet="7" windowHeight="5400" windowWidth="15165" xWindow="390" yWindow="30"/>
   </bookViews>
   <sheets>
     <sheet name="first" r:id="rId1" sheetId="1"/>
@@ -58,12 +63,12 @@
     <sheet name="ProcessFinalPayrollForMarch" r:id="rId49" sheetId="111"/>
     <sheet name="TestMarchReports" r:id="rId50" sheetId="112"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="167">
   <si>
     <t>TC</t>
   </si>
@@ -570,7 +575,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -647,7 +652,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -717,6 +722,9 @@
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -778,7 +786,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -811,9 +819,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -846,6 +871,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1028,15 +1070,15 @@
       <selection activeCell="A7" sqref="A7:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.7109375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1050,7 +1092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="15" r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1064,7 +1106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -1078,7 +1120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1092,7 +1134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1106,7 +1148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1120,7 +1162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -1134,7 +1176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -1148,7 +1190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -1162,7 +1204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -1176,7 +1218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -1190,7 +1232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>103</v>
       </c>
@@ -1204,7 +1246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>104</v>
       </c>
@@ -1218,7 +1260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>105</v>
       </c>
@@ -1232,7 +1274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>106</v>
       </c>
@@ -1246,7 +1288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>107</v>
       </c>
@@ -1260,7 +1302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>108</v>
       </c>
@@ -1274,7 +1316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>109</v>
       </c>
@@ -1288,7 +1330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15" r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -1302,7 +1344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>111</v>
       </c>
@@ -1316,7 +1358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>112</v>
       </c>
@@ -1330,7 +1372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>113</v>
       </c>
@@ -1344,7 +1386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>72</v>
       </c>
@@ -1358,7 +1400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>114</v>
       </c>
@@ -1372,7 +1414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>115</v>
       </c>
@@ -1386,7 +1428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>116</v>
       </c>
@@ -1400,7 +1442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>117</v>
       </c>
@@ -1414,7 +1456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>118</v>
       </c>
@@ -1428,7 +1470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>119</v>
       </c>
@@ -1442,7 +1484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>120</v>
       </c>
@@ -1456,7 +1498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>121</v>
       </c>
@@ -1470,7 +1512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>122</v>
       </c>
@@ -1484,7 +1526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>123</v>
       </c>
@@ -1498,7 +1540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>124</v>
       </c>
@@ -1512,7 +1554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>125</v>
       </c>
@@ -1526,7 +1568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>126</v>
       </c>
@@ -1540,7 +1582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>127</v>
       </c>
@@ -1554,7 +1596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>128</v>
       </c>
@@ -1568,7 +1610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>129</v>
       </c>
@@ -1582,7 +1624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>130</v>
       </c>
@@ -1596,7 +1638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>131</v>
       </c>
@@ -1610,7 +1652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>132</v>
       </c>
@@ -1624,7 +1666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>133</v>
       </c>
@@ -1638,7 +1680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>134</v>
       </c>
@@ -1652,7 +1694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>135</v>
       </c>
@@ -1666,7 +1708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>136</v>
       </c>
@@ -1680,7 +1722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>137</v>
       </c>
@@ -1694,7 +1736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>138</v>
       </c>
@@ -1708,7 +1750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>139</v>
       </c>
@@ -1722,7 +1764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>140</v>
       </c>
@@ -1745,27 +1787,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="25.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="35.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="19.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="24.6640625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="13" max="14" bestFit="true" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="13" max="14" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="45.75" r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -1821,14 +1863,14 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="125.25" r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+    <row customHeight="1" ht="125.25" r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="14" t="s">
         <v>166</v>
       </c>
       <c r="D2" s="22" t="s">
@@ -1886,20 +1928,20 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="19.85546875" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
@@ -1966,25 +2008,25 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -2028,7 +2070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="84" r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="84" r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -2084,25 +2126,25 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -2146,7 +2188,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="78.75" r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="78.75" r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -2202,23 +2244,23 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="13.85546875" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.5703125" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="75" r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -2274,7 +2316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="115.5" r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="115.5" r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -2339,9 +2381,9 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
@@ -2408,25 +2450,25 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -2470,7 +2512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="75.75" r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="75.75" r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -2526,25 +2568,25 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -2588,7 +2630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="88.5" r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="88.5" r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -2644,23 +2686,23 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultRowHeight="72" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr customHeight="1" defaultRowHeight="72" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="24.109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="72" r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -2716,7 +2758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="72" r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="72" r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -2781,9 +2823,9 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
@@ -2850,15 +2892,15 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="8.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="8.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2912,22 +2954,22 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultRowHeight="57.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr customHeight="1" defaultRowHeight="57.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="28.5" r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2974,7 +3016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="93.75" r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="93.75" r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -3030,25 +3072,25 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -3104,7 +3146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="114.75" r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="114.75" r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -3165,23 +3207,23 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="17.88671875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="75" r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -3237,7 +3279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="141" r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="141" r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -3302,20 +3344,20 @@
       <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
@@ -3344,7 +3386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row ht="135" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row ht="120" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>47</v>
       </c>
@@ -3382,25 +3424,25 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -3444,7 +3486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="105" r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="105" r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -3500,25 +3542,25 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -3574,7 +3616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="92.25" r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="92.25" r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -3635,23 +3677,23 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="14.7109375" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="10.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="75" r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -3707,7 +3749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="138.75" r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="138.75" r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -3772,20 +3814,20 @@
       <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
@@ -3814,7 +3856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row ht="135" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row ht="120" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>47</v>
       </c>
@@ -3852,25 +3894,25 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -3914,7 +3956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="133.5" r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="133.5" r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -3970,25 +4012,25 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultRowHeight="102.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr customHeight="1" defaultRowHeight="102.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="61.5" r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -4044,7 +4086,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="102.75" r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="102.75" r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -4105,15 +4147,15 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -4179,23 +4221,23 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.7109375" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="19.33203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="75" r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -4251,7 +4293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="150" r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="150" r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -4316,20 +4358,20 @@
       <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="15.42578125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
@@ -4358,7 +4400,7 @@
         <v>7</v>
       </c>
     </row>
-    <row ht="135" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row ht="75" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>47</v>
       </c>
@@ -4396,25 +4438,25 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -4458,7 +4500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="158.25" r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="158.25" r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -4514,25 +4556,25 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -4588,7 +4630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="127.5" r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="127.5" r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -4649,23 +4691,23 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.21875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="22.5546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="75" r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -4721,7 +4763,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="167.25" r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="167.25" r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -4786,20 +4828,20 @@
       <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
@@ -4828,7 +4870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row ht="135" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row ht="120" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>47</v>
       </c>
@@ -4866,25 +4908,25 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -4928,7 +4970,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="103.5" r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="103.5" r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -4984,15 +5026,15 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="20.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="20.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -5048,7 +5090,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="89.25" r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="89.25" r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -5109,23 +5151,23 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="75" r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -5181,7 +5223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="141" r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="141" r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -5246,20 +5288,20 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
@@ -5288,7 +5330,7 @@
         <v>7</v>
       </c>
     </row>
-    <row ht="135" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row ht="120" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>47</v>
       </c>
@@ -5326,23 +5368,23 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.44140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.42578125" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.5546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -5386,7 +5428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -5438,25 +5480,25 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="28.77734375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -5500,7 +5542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="93.75" r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="93.75" r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -5556,25 +5598,25 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.6640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -5630,7 +5672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="127.5" r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="127.5" r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -5691,23 +5733,23 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="25.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="11.0" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="20.0" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="17.88671875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="75" r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -5763,7 +5805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="150" r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="150" r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -5828,20 +5870,20 @@
       <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
@@ -5870,7 +5912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row ht="135" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row ht="120" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>47</v>
       </c>
@@ -5908,24 +5950,24 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>14</v>
       </c>
@@ -5969,7 +6011,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="132" r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="132" r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -6025,25 +6067,25 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6099,7 +6141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="132" r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="132" r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -6160,22 +6202,22 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="20.88671875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5546875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="75" r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6231,7 +6273,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="140.25" r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="140.25" r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -6296,20 +6338,20 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
@@ -6338,7 +6380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row ht="135" r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row ht="120" r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>47</v>
       </c>
@@ -6376,24 +6418,24 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="9.33203125" defaultRowHeight="108.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="9.28515625" defaultRowHeight="108.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="27.88671875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="27.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="34.5" r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="34.5" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>14</v>
       </c>
@@ -6437,7 +6479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="143.25" r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="143.25" r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -6493,28 +6535,28 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="28.8" r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>14</v>
       </c>
@@ -6567,7 +6609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="132" r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="132" r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -6628,23 +6670,23 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="41.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="41.85546875" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -6688,7 +6730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -6738,30 +6780,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.42578125" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="21.109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="8.44140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="72" r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row ht="75" r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>14</v>
       </c>
@@ -6814,7 +6856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="144.75" r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="144.75" r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -6877,25 +6919,25 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="26.28515625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="37.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="43.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.28515625" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
     <col min="12" max="12" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="32.6640625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="33.33203125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="33.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row customFormat="1" ht="30" r="1" s="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -6951,7 +6993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="62.4" r="2" s="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="62.45" r="2" s="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -7017,20 +7059,20 @@
       <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="25.7109375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -7092,28 +7134,28 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="27.33203125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -7157,7 +7199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="86.25" r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="86.25" r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -7209,29 +7251,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="4.88671875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -7275,7 +7317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="86.25" r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="86.25" r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioSeven201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioSeven201718.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="167">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioSeven201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioSeven201718.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="167">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioSeven201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioSeven201718.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="9" firstSheet="7" windowHeight="5400" windowWidth="15165" xWindow="390" yWindow="30"/>
+    <workbookView activeTab="48" firstSheet="46" windowHeight="5400" windowWidth="15165" xWindow="390" yWindow="30"/>
   </bookViews>
   <sheets>
     <sheet name="first" r:id="rId1" sheetId="1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="167">
   <si>
     <t>TC</t>
   </si>
@@ -1787,7 +1787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:Q2"/>
     </sheetView>
   </sheetViews>
@@ -2005,7 +2005,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2122,8 +2122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3066,10 +3066,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3088,12 +3088,9 @@
     <col min="12" max="12" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -3136,17 +3133,8 @@
       <c r="N1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="114.75" r="2" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row customHeight="1" ht="114.75" r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -3185,11 +3173,6 @@
       </c>
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
-      <c r="O2" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3203,7 +3186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -3420,7 +3403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
@@ -3536,10 +3519,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3558,12 +3541,9 @@
     <col min="12" max="12" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -3606,17 +3586,8 @@
       <c r="N1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="92.25" r="2" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row customHeight="1" ht="92.25" r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -3655,11 +3626,6 @@
       </c>
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
-      <c r="O2" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3673,7 +3639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
@@ -3890,7 +3856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
@@ -4006,10 +3972,10 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultRowHeight="102.75" x14ac:dyDescent="0.25"/>
@@ -4028,12 +3994,9 @@
     <col min="12" max="12" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="61.5" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="61.5" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -4076,17 +4039,8 @@
       <c r="N1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="102.75" r="2" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row customHeight="1" ht="102.75" r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -4125,11 +4079,6 @@
       </c>
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
-      <c r="O2" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4217,7 +4166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
@@ -4434,7 +4383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
@@ -4550,10 +4499,10 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4572,12 +4521,9 @@
     <col min="12" max="12" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -4620,17 +4566,8 @@
       <c r="N1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="127.5" r="2" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row customHeight="1" ht="127.5" r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -4669,11 +4606,6 @@
       </c>
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
-      <c r="O2" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4687,7 +4619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
@@ -4904,7 +4836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
@@ -5020,10 +4952,10 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5037,7 +4969,7 @@
     <col min="8" max="8" customWidth="true" width="20.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -5080,17 +5012,8 @@
       <c r="N1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="89.25" r="2" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row customHeight="1" ht="89.25" r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -5129,11 +5052,6 @@
       </c>
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
-      <c r="O2" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5592,10 +5510,10 @@
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5614,12 +5532,9 @@
     <col min="12" max="12" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -5662,17 +5577,8 @@
       <c r="N1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="127.5" r="2" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row customHeight="1" ht="127.5" r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -5711,11 +5617,6 @@
       </c>
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
-      <c r="O2" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6061,10 +5962,10 @@
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6083,12 +5984,9 @@
     <col min="12" max="12" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -6131,17 +6029,8 @@
       <c r="N1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="132" r="2" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row customHeight="1" ht="132" r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -6180,11 +6069,6 @@
       </c>
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
-      <c r="O2" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6529,10 +6413,10 @@
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6551,12 +6435,9 @@
     <col min="12" max="12" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="5.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>14</v>
       </c>
@@ -6599,17 +6480,8 @@
       <c r="N1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="132" r="2" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row customHeight="1" ht="132" r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>165</v>
       </c>
@@ -6648,11 +6520,6 @@
       </c>
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
-      <c r="O2" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioSeven201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioSeven201718.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="167">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioSeven201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Recognition ScenarioSeven201718.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400" firstSheet="47" activeTab="49"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -63,12 +63,12 @@
     <sheet name="ProcessFinalPayrollForMarch" sheetId="111" r:id="rId49"/>
     <sheet name="TestMarchReports" sheetId="112" r:id="rId50"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="167">
   <si>
     <t>TC</t>
   </si>
@@ -568,13 +568,16 @@
   </si>
   <si>
     <t>March-2018</t>
+  </si>
+  <si>
+    <t>Week1/Month1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -607,6 +610,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -658,7 +668,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -729,6 +739,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1073,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4061,14 +4074,14 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.5703125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -4111,8 +4124,8 @@
       <c r="C2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>48</v>
+      <c r="D2" s="28" t="s">
+        <v>166</v>
       </c>
       <c r="E2" s="2">
         <v>470.88</v>
@@ -5248,7 +5261,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6590,7 +6603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
